--- a/Team-Data/2008-09/11-23-2008-09.xlsx
+++ b/Team-Data/2008-09/11-23-2008-09.xlsx
@@ -811,7 +811,7 @@
         <v>1.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
@@ -829,7 +829,7 @@
         <v>18</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
         <v>15</v>
@@ -856,13 +856,13 @@
         <v>8</v>
       </c>
       <c r="AS2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
         <v>16</v>
       </c>
       <c r="AU2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV2" t="n">
         <v>12</v>
@@ -877,13 +877,13 @@
         <v>19</v>
       </c>
       <c r="AZ2" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB2" t="n">
         <v>10</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>23</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>11</v>
       </c>
       <c r="BC2" t="n">
         <v>16</v>
@@ -915,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.846</v>
+        <v>0.857</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="J3" t="n">
-        <v>75.40000000000001</v>
+        <v>75.3</v>
       </c>
       <c r="K3" t="n">
         <v>0.454</v>
       </c>
       <c r="L3" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="M3" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.33</v>
+        <v>0.323</v>
       </c>
       <c r="O3" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="P3" t="n">
-        <v>29.4</v>
+        <v>29.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.762</v>
+        <v>0.75</v>
       </c>
       <c r="R3" t="n">
         <v>10.5</v>
       </c>
       <c r="S3" t="n">
-        <v>33.5</v>
+        <v>32.9</v>
       </c>
       <c r="T3" t="n">
-        <v>44</v>
+        <v>43.4</v>
       </c>
       <c r="U3" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="V3" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="W3" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.2</v>
+        <v>95.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -1005,25 +1005,25 @@
         <v>2</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AJ3" t="n">
         <v>28</v>
       </c>
       <c r="AK3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AN3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO3" t="n">
         <v>3</v>
@@ -1032,19 +1032,19 @@
         <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AR3" t="n">
         <v>23</v>
       </c>
       <c r="AS3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AV3" t="n">
         <v>30</v>
@@ -1053,19 +1053,19 @@
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY3" t="n">
         <v>5</v>
       </c>
       <c r="AZ3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA3" t="n">
         <v>3</v>
       </c>
       <c r="BB3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC3" t="n">
         <v>3</v>
@@ -1175,7 +1175,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
         <v>26</v>
@@ -1196,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL4" t="n">
         <v>26</v>
@@ -1211,10 +1211,10 @@
         <v>16</v>
       </c>
       <c r="AP4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR4" t="n">
         <v>15</v>
@@ -1229,7 +1229,7 @@
         <v>29</v>
       </c>
       <c r="AV4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW4" t="n">
         <v>11</v>
@@ -1279,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
         <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>0.417</v>
+        <v>0.462</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J5" t="n">
-        <v>85.8</v>
+        <v>84.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.417</v>
+        <v>0.423</v>
       </c>
       <c r="L5" t="n">
         <v>5.4</v>
       </c>
       <c r="M5" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.346</v>
+        <v>0.35</v>
       </c>
       <c r="O5" t="n">
-        <v>20.3</v>
+        <v>21.3</v>
       </c>
       <c r="P5" t="n">
-        <v>25.3</v>
+        <v>26.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.805</v>
+        <v>0.798</v>
       </c>
       <c r="R5" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="S5" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="T5" t="n">
-        <v>43.9</v>
+        <v>43.6</v>
       </c>
       <c r="U5" t="n">
-        <v>18.2</v>
+        <v>18.8</v>
       </c>
       <c r="V5" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="W5" t="n">
         <v>9.199999999999999</v>
@@ -1342,61 +1342,61 @@
         <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.3</v>
+        <v>22.8</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>21.7</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.7</v>
+        <v>-2.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
         <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
         <v>20</v>
       </c>
       <c r="AI5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
       </c>
       <c r="AM5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN5" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AQ5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR5" t="n">
         <v>5</v>
@@ -1405,34 +1405,34 @@
         <v>15</v>
       </c>
       <c r="AT5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AV5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AW5" t="n">
         <v>3</v>
       </c>
       <c r="AX5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY5" t="n">
         <v>30</v>
       </c>
       <c r="AZ5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA5" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BB5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1461,91 +1461,91 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.833</v>
+        <v>0.769</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>37</v>
+        <v>36.4</v>
       </c>
       <c r="J6" t="n">
-        <v>77.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.478</v>
+        <v>0.474</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="M6" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.359</v>
+        <v>0.349</v>
       </c>
       <c r="O6" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="P6" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.792</v>
+        <v>0.786</v>
       </c>
       <c r="R6" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="S6" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="T6" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U6" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="V6" t="n">
-        <v>12.6</v>
+        <v>13.3</v>
       </c>
       <c r="W6" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.8</v>
+        <v>22.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.6</v>
+        <v>101.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG6" t="n">
         <v>3</v>
@@ -1554,13 +1554,13 @@
         <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AJ6" t="n">
         <v>26</v>
       </c>
       <c r="AK6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL6" t="n">
         <v>10</v>
@@ -1569,46 +1569,46 @@
         <v>8</v>
       </c>
       <c r="AN6" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="n">
         <v>4</v>
       </c>
       <c r="AP6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AQ6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AR6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT6" t="n">
         <v>20</v>
       </c>
       <c r="AU6" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AV6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX6" t="n">
         <v>7</v>
       </c>
       <c r="AY6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB6" t="n">
         <v>4</v>
@@ -1721,7 +1721,7 @@
         <v>1.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
         <v>16</v>
@@ -1736,7 +1736,7 @@
         <v>9</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="n">
         <v>7</v>
@@ -1760,7 +1760,7 @@
         <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR7" t="n">
         <v>7</v>
@@ -1778,7 +1778,7 @@
         <v>14</v>
       </c>
       <c r="AW7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX7" t="n">
         <v>14</v>
@@ -1787,13 +1787,13 @@
         <v>6</v>
       </c>
       <c r="AZ7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA7" t="n">
         <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC7" t="n">
         <v>13</v>
@@ -1903,7 +1903,7 @@
         <v>1.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
@@ -1948,7 +1948,7 @@
         <v>25</v>
       </c>
       <c r="AS8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT8" t="n">
         <v>15</v>
@@ -1969,13 +1969,13 @@
         <v>28</v>
       </c>
       <c r="AZ8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
         <v>2</v>
       </c>
       <c r="BB8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC8" t="n">
         <v>14</v>
@@ -2085,7 +2085,7 @@
         <v>1.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
         <v>8</v>
@@ -2118,13 +2118,13 @@
         <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR9" t="n">
         <v>9</v>
@@ -2136,7 +2136,7 @@
         <v>14</v>
       </c>
       <c r="AU9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV9" t="n">
         <v>9</v>
@@ -2148,7 +2148,7 @@
         <v>12</v>
       </c>
       <c r="AY9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ9" t="n">
         <v>19</v>
@@ -2267,16 +2267,16 @@
         <v>-0.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF10" t="n">
         <v>19</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH10" t="n">
         <v>5</v>
@@ -2291,10 +2291,10 @@
         <v>18</v>
       </c>
       <c r="AL10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN10" t="n">
         <v>28</v>
@@ -2339,10 +2339,10 @@
         <v>1</v>
       </c>
       <c r="BB10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2449,10 +2449,10 @@
         <v>3.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF11" t="n">
         <v>6</v>
@@ -2461,7 +2461,7 @@
         <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
@@ -2476,10 +2476,10 @@
         <v>14</v>
       </c>
       <c r="AM11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO11" t="n">
         <v>18</v>
@@ -2494,7 +2494,7 @@
         <v>22</v>
       </c>
       <c r="AS11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT11" t="n">
         <v>11</v>
@@ -2518,13 +2518,13 @@
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB11" t="n">
         <v>25</v>
       </c>
       <c r="BC11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2631,16 +2631,16 @@
         <v>2</v>
       </c>
       <c r="AD12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF12" t="n">
         <v>19</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH12" t="n">
         <v>7</v>
@@ -2664,13 +2664,13 @@
         <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR12" t="n">
         <v>14</v>
@@ -2679,13 +2679,13 @@
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU12" t="n">
         <v>5</v>
       </c>
       <c r="AV12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW12" t="n">
         <v>18</v>
@@ -2700,10 +2700,10 @@
         <v>22</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC12" t="n">
         <v>12</v>
@@ -2813,7 +2813,7 @@
         <v>-9.699999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
@@ -2837,10 +2837,10 @@
         <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN13" t="n">
         <v>27</v>
@@ -2867,10 +2867,10 @@
         <v>20</v>
       </c>
       <c r="AV13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX13" t="n">
         <v>6</v>
@@ -2917,88 +2917,88 @@
         </is>
       </c>
       <c r="D14" t="n">
+        <v>11</v>
+      </c>
+      <c r="E14" t="n">
         <v>10</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9</v>
+        <v>0.909</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.2</v>
+        <v>39</v>
       </c>
       <c r="J14" t="n">
-        <v>87.09999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.45</v>
+        <v>0.452</v>
       </c>
       <c r="L14" t="n">
         <v>6.6</v>
       </c>
       <c r="M14" t="n">
-        <v>18.1</v>
+        <v>17.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.365</v>
+        <v>0.382</v>
       </c>
       <c r="O14" t="n">
-        <v>20.7</v>
+        <v>20.2</v>
       </c>
       <c r="P14" t="n">
-        <v>27.3</v>
+        <v>26.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.758</v>
+        <v>0.763</v>
       </c>
       <c r="R14" t="n">
-        <v>13.9</v>
+        <v>13.5</v>
       </c>
       <c r="S14" t="n">
-        <v>32.7</v>
+        <v>33.4</v>
       </c>
       <c r="T14" t="n">
-        <v>46.6</v>
+        <v>46.8</v>
       </c>
       <c r="U14" t="n">
-        <v>22</v>
+        <v>21.7</v>
       </c>
       <c r="V14" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W14" t="n">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="X14" t="n">
         <v>6.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.3</v>
+        <v>21.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>105.7</v>
+        <v>104.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>12.9</v>
+        <v>13.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>1</v>
@@ -3022,34 +3022,34 @@
         <v>11</v>
       </c>
       <c r="AM14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AN14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AO14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AR14" t="n">
         <v>4</v>
       </c>
       <c r="AS14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AT14" t="n">
         <v>3</v>
       </c>
       <c r="AU14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3058,16 +3058,16 @@
         <v>3</v>
       </c>
       <c r="AY14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA14" t="n">
         <v>12</v>
       </c>
-      <c r="AZ14" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>10</v>
-      </c>
       <c r="BB14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC14" t="n">
         <v>1</v>
@@ -3177,7 +3177,7 @@
         <v>-5.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3213,16 +3213,16 @@
         <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ15" t="n">
         <v>10</v>
       </c>
       <c r="AR15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT15" t="n">
         <v>13</v>
@@ -3246,7 +3246,7 @@
         <v>24</v>
       </c>
       <c r="BA15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB15" t="n">
         <v>26</v>
@@ -3359,13 +3359,13 @@
         <v>4</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE16" t="n">
         <v>12</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG16" t="n">
         <v>13</v>
@@ -3374,22 +3374,22 @@
         <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ16" t="n">
         <v>14</v>
       </c>
       <c r="AK16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL16" t="n">
         <v>6</v>
       </c>
       <c r="AM16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO16" t="n">
         <v>21</v>
@@ -3401,25 +3401,25 @@
         <v>24</v>
       </c>
       <c r="AR16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS16" t="n">
         <v>25</v>
       </c>
       <c r="AT16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW16" t="n">
         <v>6</v>
       </c>
       <c r="AX16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY16" t="n">
         <v>4</v>
@@ -3431,7 +3431,7 @@
         <v>20</v>
       </c>
       <c r="BB16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC16" t="n">
         <v>5</v>
@@ -3463,43 +3463,43 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>0.467</v>
       </c>
       <c r="H17" t="n">
-        <v>49.1</v>
+        <v>49</v>
       </c>
       <c r="I17" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="J17" t="n">
-        <v>82.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.424</v>
+        <v>0.428</v>
       </c>
       <c r="L17" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M17" t="n">
         <v>14.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.362</v>
+        <v>0.366</v>
       </c>
       <c r="O17" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="P17" t="n">
-        <v>26.9</v>
+        <v>26.4</v>
       </c>
       <c r="Q17" t="n">
         <v>0.753</v>
@@ -3508,37 +3508,37 @@
         <v>13.9</v>
       </c>
       <c r="S17" t="n">
-        <v>32.1</v>
+        <v>31.2</v>
       </c>
       <c r="T17" t="n">
-        <v>46</v>
+        <v>45.1</v>
       </c>
       <c r="U17" t="n">
         <v>20.3</v>
       </c>
       <c r="V17" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="W17" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="X17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Y17" t="n">
         <v>5.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>24.6</v>
+        <v>24.2</v>
       </c>
       <c r="AB17" t="n">
         <v>95.09999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.2</v>
+        <v>-0.7</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3547,10 +3547,10 @@
         <v>12</v>
       </c>
       <c r="AF17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG17" t="n">
         <v>19</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>15</v>
       </c>
       <c r="AH17" t="n">
         <v>2</v>
@@ -3562,40 +3562,40 @@
         <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM17" t="n">
         <v>27</v>
       </c>
       <c r="AN17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO17" t="n">
         <v>12</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AP17" t="n">
         <v>10</v>
       </c>
-      <c r="AP17" t="n">
-        <v>9</v>
-      </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR17" t="n">
         <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AT17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV17" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AW17" t="n">
         <v>27</v>
@@ -3616,7 +3616,7 @@
         <v>23</v>
       </c>
       <c r="BC17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3738,13 +3738,13 @@
         <v>1</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL18" t="n">
         <v>28</v>
@@ -3759,10 +3759,10 @@
         <v>19</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR18" t="n">
         <v>16</v>
@@ -3777,7 +3777,7 @@
         <v>2</v>
       </c>
       <c r="AV18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW18" t="n">
         <v>26</v>
@@ -3789,10 +3789,10 @@
         <v>23</v>
       </c>
       <c r="AZ18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB18" t="n">
         <v>22</v>
@@ -3905,13 +3905,13 @@
         <v>-3.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
       </c>
       <c r="AF19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG19" t="n">
         <v>15</v>
@@ -3944,19 +3944,19 @@
         <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR19" t="n">
         <v>13</v>
       </c>
       <c r="AS19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT19" t="n">
         <v>17</v>
       </c>
       <c r="AU19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV19" t="n">
         <v>9</v>
@@ -3977,10 +3977,10 @@
         <v>13</v>
       </c>
       <c r="BB19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -4087,7 +4087,7 @@
         <v>3.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="n">
         <v>12</v>
@@ -4096,7 +4096,7 @@
         <v>6</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
         <v>30</v>
@@ -4123,10 +4123,10 @@
         <v>22</v>
       </c>
       <c r="AP20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR20" t="n">
         <v>27</v>
@@ -4138,10 +4138,10 @@
         <v>30</v>
       </c>
       <c r="AU20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
         <v>5</v>
@@ -4150,19 +4150,19 @@
         <v>26</v>
       </c>
       <c r="AY20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4269,13 +4269,13 @@
         <v>-1.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>12</v>
       </c>
       <c r="AF21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG21" t="n">
         <v>13</v>
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO21" t="n">
         <v>28</v>
@@ -4308,13 +4308,13 @@
         <v>27</v>
       </c>
       <c r="AQ21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR21" t="n">
         <v>24</v>
       </c>
       <c r="AS21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT21" t="n">
         <v>12</v>
@@ -4332,7 +4332,7 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ21" t="n">
         <v>5</v>
@@ -4341,7 +4341,7 @@
         <v>29</v>
       </c>
       <c r="BB21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC21" t="n">
         <v>21</v>
@@ -4451,7 +4451,7 @@
         <v>-12.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE22" t="n">
         <v>29</v>
@@ -4466,7 +4466,7 @@
         <v>20</v>
       </c>
       <c r="AI22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
@@ -4481,31 +4481,31 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP22" t="n">
         <v>20</v>
       </c>
       <c r="AQ22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR22" t="n">
         <v>10</v>
       </c>
       <c r="AS22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU22" t="n">
         <v>27</v>
       </c>
       <c r="AV22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW22" t="n">
         <v>20</v>
@@ -4633,10 +4633,10 @@
         <v>5.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP23" t="n">
         <v>4</v>
@@ -4675,13 +4675,13 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT23" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AU23" t="n">
         <v>28</v>
@@ -4696,16 +4696,16 @@
         <v>1</v>
       </c>
       <c r="AY23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA23" t="n">
         <v>6</v>
       </c>
       <c r="BB23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC23" t="n">
         <v>4</v>
@@ -4815,13 +4815,13 @@
         <v>2.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE24" t="n">
         <v>16</v>
       </c>
       <c r="AF24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG24" t="n">
         <v>15</v>
@@ -4845,13 +4845,13 @@
         <v>28</v>
       </c>
       <c r="AN24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO24" t="n">
         <v>27</v>
       </c>
       <c r="AP24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ24" t="n">
         <v>26</v>
@@ -4866,10 +4866,10 @@
         <v>1</v>
       </c>
       <c r="AU24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW24" t="n">
         <v>22</v>
@@ -4890,7 +4890,7 @@
         <v>19</v>
       </c>
       <c r="BC24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4997,10 +4997,10 @@
         <v>2.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF25" t="n">
         <v>6</v>
@@ -5009,10 +5009,10 @@
         <v>6</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ25" t="n">
         <v>30</v>
@@ -5027,13 +5027,13 @@
         <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ25" t="n">
         <v>27</v>
@@ -5042,13 +5042,13 @@
         <v>29</v>
       </c>
       <c r="AS25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT25" t="n">
         <v>22</v>
       </c>
       <c r="AU25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV25" t="n">
         <v>29</v>
@@ -5060,7 +5060,7 @@
         <v>17</v>
       </c>
       <c r="AY25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ25" t="n">
         <v>6</v>
@@ -5069,7 +5069,7 @@
         <v>7</v>
       </c>
       <c r="BB25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC25" t="n">
         <v>11</v>
@@ -5101,106 +5101,106 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>0.615</v>
+        <v>0.571</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.6</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>79.5</v>
+        <v>79.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.461</v>
+        <v>0.452</v>
       </c>
       <c r="L26" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="M26" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="N26" t="n">
         <v>0.419</v>
       </c>
       <c r="O26" t="n">
-        <v>18.1</v>
+        <v>17.4</v>
       </c>
       <c r="P26" t="n">
-        <v>23.4</v>
+        <v>22.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.773</v>
+        <v>0.764</v>
       </c>
       <c r="R26" t="n">
         <v>12.6</v>
       </c>
       <c r="S26" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="T26" t="n">
-        <v>39.2</v>
+        <v>39.5</v>
       </c>
       <c r="U26" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="V26" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="W26" t="n">
         <v>7.5</v>
       </c>
       <c r="X26" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="AB26" t="n">
-        <v>100.1</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AG26" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK26" t="n">
         <v>10</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>6</v>
       </c>
       <c r="AL26" t="n">
         <v>3</v>
@@ -5212,13 +5212,13 @@
         <v>2</v>
       </c>
       <c r="AO26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP26" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AQ26" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AR26" t="n">
         <v>6</v>
@@ -5227,10 +5227,10 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV26" t="n">
         <v>1</v>
@@ -5242,19 +5242,19 @@
         <v>11</v>
       </c>
       <c r="AY26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA26" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BB26" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5361,10 +5361,10 @@
         <v>-5.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF27" t="n">
         <v>24</v>
@@ -5373,7 +5373,7 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI27" t="n">
         <v>4</v>
@@ -5388,19 +5388,19 @@
         <v>23</v>
       </c>
       <c r="AM27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN27" t="n">
         <v>26</v>
       </c>
       <c r="AO27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP27" t="n">
         <v>28</v>
       </c>
       <c r="AQ27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR27" t="n">
         <v>26</v>
@@ -5412,7 +5412,7 @@
         <v>28</v>
       </c>
       <c r="AU27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV27" t="n">
         <v>22</v>
@@ -5543,13 +5543,13 @@
         <v>-0.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
         <v>16</v>
       </c>
       <c r="AF28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG28" t="n">
         <v>15</v>
@@ -5564,7 +5564,7 @@
         <v>24</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
         <v>5</v>
@@ -5582,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5594,7 +5594,7 @@
         <v>27</v>
       </c>
       <c r="AU28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV28" t="n">
         <v>2</v>
@@ -5618,7 +5618,7 @@
         <v>27</v>
       </c>
       <c r="BC28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5725,13 +5725,13 @@
         <v>-0.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE29" t="n">
         <v>16</v>
       </c>
       <c r="AF29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG29" t="n">
         <v>15</v>
@@ -5746,13 +5746,13 @@
         <v>25</v>
       </c>
       <c r="AK29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL29" t="n">
         <v>12</v>
       </c>
       <c r="AM29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN29" t="n">
         <v>3</v>
@@ -5907,10 +5907,10 @@
         <v>2.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF30" t="n">
         <v>6</v>
@@ -5928,7 +5928,7 @@
         <v>23</v>
       </c>
       <c r="AK30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL30" t="n">
         <v>29</v>
@@ -5943,7 +5943,7 @@
         <v>15</v>
       </c>
       <c r="AP30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ30" t="n">
         <v>18</v>
@@ -5961,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW30" t="n">
         <v>4</v>
@@ -5982,7 +5982,7 @@
         <v>15</v>
       </c>
       <c r="BC30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -6125,10 +6125,10 @@
         <v>14</v>
       </c>
       <c r="AP31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR31" t="n">
         <v>21</v>
@@ -6140,7 +6140,7 @@
         <v>26</v>
       </c>
       <c r="AU31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV31" t="n">
         <v>8</v>
@@ -6158,7 +6158,7 @@
         <v>7</v>
       </c>
       <c r="BA31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB31" t="n">
         <v>24</v>

--- a/Team-Data/2008-09/11-23-2008-09.xlsx
+++ b/Team-Data/2008-09/11-23-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -747,10 +814,10 @@
         <v>9</v>
       </c>
       <c r="AE2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG2" t="n">
         <v>9</v>
@@ -759,10 +826,10 @@
         <v>20</v>
       </c>
       <c r="AI2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>17</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>16</v>
       </c>
       <c r="AK2" t="n">
         <v>15</v>
@@ -777,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP2" t="n">
         <v>16</v>
@@ -792,19 +859,19 @@
         <v>20</v>
       </c>
       <c r="AT2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW2" t="n">
         <v>19</v>
       </c>
       <c r="AX2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY2" t="n">
         <v>19</v>
@@ -816,10 +883,10 @@
         <v>22</v>
       </c>
       <c r="BB2" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BC2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-23-2008-09</t>
+          <t>2008-11-23</t>
         </is>
       </c>
     </row>
@@ -863,52 +930,52 @@
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>35</v>
+        <v>34.1</v>
       </c>
       <c r="J3" t="n">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.465</v>
+        <v>0.454</v>
       </c>
       <c r="L3" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="M3" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.35</v>
+        <v>0.323</v>
       </c>
       <c r="O3" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="P3" t="n">
-        <v>29.4</v>
+        <v>29.7</v>
       </c>
       <c r="Q3" t="n">
         <v>0.75</v>
       </c>
       <c r="R3" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S3" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="T3" t="n">
-        <v>43.6</v>
+        <v>43.4</v>
       </c>
       <c r="U3" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="V3" t="n">
         <v>16.9</v>
       </c>
       <c r="W3" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="Y3" t="n">
         <v>3.9</v>
@@ -917,13 +984,13 @@
         <v>23.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.7</v>
+        <v>95.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="AD3" t="n">
         <v>2</v>
@@ -941,25 +1008,25 @@
         <v>15</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AJ3" t="n">
         <v>28</v>
       </c>
       <c r="AK3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AL3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AM3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AO3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP3" t="n">
         <v>3</v>
@@ -971,13 +1038,13 @@
         <v>23</v>
       </c>
       <c r="AS3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AV3" t="n">
         <v>30</v>
@@ -986,19 +1053,19 @@
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY3" t="n">
         <v>5</v>
       </c>
       <c r="AZ3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA3" t="n">
         <v>3</v>
       </c>
       <c r="BB3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BC3" t="n">
         <v>3</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-23-2008-09</t>
+          <t>2008-11-23</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
         <v>26</v>
@@ -1129,13 +1196,13 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL4" t="n">
         <v>26</v>
       </c>
       <c r="AM4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN4" t="n">
         <v>25</v>
@@ -1147,7 +1214,7 @@
         <v>14</v>
       </c>
       <c r="AQ4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR4" t="n">
         <v>15</v>
@@ -1156,16 +1223,16 @@
         <v>30</v>
       </c>
       <c r="AT4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU4" t="n">
         <v>29</v>
       </c>
       <c r="AV4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX4" t="n">
         <v>20</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-23-2008-09</t>
+          <t>2008-11-23</t>
         </is>
       </c>
     </row>
@@ -1215,157 +1282,157 @@
         <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>0.385</v>
+        <v>0.462</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J5" t="n">
-        <v>86</v>
+        <v>84.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.417</v>
+        <v>0.423</v>
       </c>
       <c r="L5" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="M5" t="n">
-        <v>16.4</v>
+        <v>15.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.343</v>
+        <v>0.35</v>
       </c>
       <c r="O5" t="n">
-        <v>20.2</v>
+        <v>21.3</v>
       </c>
       <c r="P5" t="n">
-        <v>25</v>
+        <v>26.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.798</v>
       </c>
       <c r="R5" t="n">
         <v>13.2</v>
       </c>
       <c r="S5" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T5" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="U5" t="n">
-        <v>18.2</v>
+        <v>18.8</v>
       </c>
       <c r="V5" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W5" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.8</v>
+        <v>22.8</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>21.7</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-4.4</v>
+        <v>-2.4</v>
       </c>
       <c r="AD5" t="n">
         <v>9</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
         <v>20</v>
       </c>
       <c r="AI5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>4</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>3</v>
       </c>
       <c r="AR5" t="n">
         <v>5</v>
       </c>
       <c r="AS5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AU5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AV5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AW5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY5" t="n">
         <v>30</v>
       </c>
       <c r="AZ5" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="BA5" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BB5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BC5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-23-2008-09</t>
+          <t>2008-11-23</t>
         </is>
       </c>
     </row>
@@ -1394,91 +1461,91 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.833</v>
+        <v>0.769</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>37</v>
+        <v>36.4</v>
       </c>
       <c r="J6" t="n">
-        <v>77.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.478</v>
+        <v>0.474</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="M6" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.359</v>
+        <v>0.349</v>
       </c>
       <c r="O6" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="P6" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.792</v>
+        <v>0.786</v>
       </c>
       <c r="R6" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="S6" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="T6" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U6" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="V6" t="n">
-        <v>12.6</v>
+        <v>13.3</v>
       </c>
       <c r="W6" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.8</v>
+        <v>22.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.6</v>
+        <v>101.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG6" t="n">
         <v>3</v>
@@ -1487,13 +1554,13 @@
         <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL6" t="n">
         <v>10</v>
@@ -1502,46 +1569,46 @@
         <v>8</v>
       </c>
       <c r="AN6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="n">
         <v>4</v>
       </c>
       <c r="AP6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AQ6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AR6" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AS6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW6" t="n">
         <v>15</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>17</v>
       </c>
       <c r="AX6" t="n">
         <v>7</v>
       </c>
       <c r="AY6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB6" t="n">
         <v>4</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-23-2008-09</t>
+          <t>2008-11-23</t>
         </is>
       </c>
     </row>
@@ -1657,34 +1724,34 @@
         <v>9</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH7" t="n">
         <v>9</v>
       </c>
       <c r="AI7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="n">
         <v>7</v>
       </c>
       <c r="AK7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM7" t="n">
         <v>11</v>
       </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO7" t="n">
         <v>17</v>
@@ -1693,7 +1760,7 @@
         <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR7" t="n">
         <v>7</v>
@@ -1711,10 +1778,10 @@
         <v>14</v>
       </c>
       <c r="AW7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX7" t="n">
         <v>14</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>13</v>
       </c>
       <c r="AY7" t="n">
         <v>6</v>
@@ -1726,10 +1793,10 @@
         <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-23-2008-09</t>
+          <t>2008-11-23</t>
         </is>
       </c>
     </row>
@@ -1758,136 +1825,136 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
         <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>0.643</v>
+        <v>0.615</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
       </c>
       <c r="I8" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="J8" t="n">
-        <v>77.90000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="K8" t="n">
-        <v>0.448</v>
+        <v>0.441</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M8" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.313</v>
+        <v>0.316</v>
       </c>
       <c r="O8" t="n">
-        <v>24.6</v>
+        <v>24.2</v>
       </c>
       <c r="P8" t="n">
-        <v>31.9</v>
+        <v>31.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.772</v>
+        <v>0.778</v>
       </c>
       <c r="R8" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U8" t="n">
-        <v>22.3</v>
+        <v>21.6</v>
       </c>
       <c r="V8" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="W8" t="n">
         <v>9.5</v>
       </c>
       <c r="X8" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="AB8" t="n">
-        <v>99.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ8" t="n">
         <v>22</v>
       </c>
       <c r="AK8" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="n">
         <v>22</v>
       </c>
       <c r="AM8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
       </c>
       <c r="AP8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
         <v>25</v>
       </c>
       <c r="AS8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV8" t="n">
         <v>23</v>
@@ -1896,22 +1963,22 @@
         <v>2</v>
       </c>
       <c r="AX8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY8" t="n">
         <v>28</v>
       </c>
       <c r="AZ8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
         <v>2</v>
       </c>
       <c r="BB8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BC8" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-23-2008-09</t>
+          <t>2008-11-23</t>
         </is>
       </c>
     </row>
@@ -1940,64 +2007,64 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>0.615</v>
+        <v>0.667</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>34.8</v>
+        <v>35.3</v>
       </c>
       <c r="J9" t="n">
-        <v>79.09999999999999</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.441</v>
+        <v>0.447</v>
       </c>
       <c r="L9" t="n">
         <v>5.8</v>
       </c>
       <c r="M9" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="N9" t="n">
-        <v>0.387</v>
+        <v>0.389</v>
       </c>
       <c r="O9" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="P9" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="R9" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="S9" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="T9" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="U9" t="n">
         <v>20.3</v>
       </c>
-      <c r="P9" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.781</v>
-      </c>
-      <c r="R9" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="S9" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="T9" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="U9" t="n">
-        <v>20.4</v>
-      </c>
       <c r="V9" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="W9" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="X9" t="n">
         <v>5.2</v>
@@ -2006,40 +2073,40 @@
         <v>4.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.9</v>
+        <v>22.3</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.9</v>
+        <v>22.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>95.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.8</v>
+        <v>1.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG9" t="n">
         <v>5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>9</v>
       </c>
       <c r="AH9" t="n">
         <v>20</v>
       </c>
       <c r="AI9" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK9" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AL9" t="n">
         <v>15</v>
@@ -2051,49 +2118,49 @@
         <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP9" t="n">
         <v>11</v>
       </c>
       <c r="AQ9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR9" t="n">
         <v>9</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>11</v>
       </c>
       <c r="AS9" t="n">
         <v>18</v>
       </c>
       <c r="AT9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AU9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW9" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY9" t="n">
         <v>12</v>
       </c>
       <c r="AZ9" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB9" t="n">
         <v>18</v>
       </c>
-      <c r="BA9" t="n">
-        <v>10</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>22</v>
-      </c>
       <c r="BC9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-23-2008-09</t>
+          <t>2008-11-23</t>
         </is>
       </c>
     </row>
@@ -2122,91 +2189,91 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" t="n">
-        <v>0.385</v>
+        <v>0.417</v>
       </c>
       <c r="H10" t="n">
         <v>48.8</v>
       </c>
       <c r="I10" t="n">
-        <v>38.2</v>
+        <v>38.5</v>
       </c>
       <c r="J10" t="n">
-        <v>86.59999999999999</v>
+        <v>87.3</v>
       </c>
       <c r="K10" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L10" t="n">
         <v>5.3</v>
       </c>
       <c r="M10" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="N10" t="n">
-        <v>0.304</v>
+        <v>0.301</v>
       </c>
       <c r="O10" t="n">
-        <v>21.9</v>
+        <v>23.2</v>
       </c>
       <c r="P10" t="n">
-        <v>30.4</v>
+        <v>31.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.722</v>
+        <v>0.728</v>
       </c>
       <c r="R10" t="n">
-        <v>14</v>
+        <v>14.3</v>
       </c>
       <c r="S10" t="n">
-        <v>29.9</v>
+        <v>30.2</v>
       </c>
       <c r="T10" t="n">
-        <v>43.9</v>
+        <v>44.4</v>
       </c>
       <c r="U10" t="n">
         <v>19.7</v>
       </c>
       <c r="V10" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="W10" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X10" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.5</v>
+        <v>22.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>25.7</v>
+        <v>26.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>103.5</v>
+        <v>105.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.2</v>
+        <v>-0.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AG10" t="n">
         <v>22</v>
@@ -2215,28 +2282,28 @@
         <v>5</v>
       </c>
       <c r="AI10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN10" t="n">
         <v>28</v>
       </c>
       <c r="AO10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
@@ -2245,7 +2312,7 @@
         <v>2</v>
       </c>
       <c r="AS10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT10" t="n">
         <v>6</v>
@@ -2257,25 +2324,25 @@
         <v>17</v>
       </c>
       <c r="AW10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA10" t="n">
         <v>1</v>
       </c>
       <c r="BB10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-23-2008-09</t>
+          <t>2008-11-23</t>
         </is>
       </c>
     </row>
@@ -2388,10 +2455,10 @@
         <v>4</v>
       </c>
       <c r="AF11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH11" t="n">
         <v>15</v>
@@ -2400,16 +2467,16 @@
         <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL11" t="n">
         <v>14</v>
       </c>
       <c r="AM11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN11" t="n">
         <v>19</v>
@@ -2427,7 +2494,7 @@
         <v>22</v>
       </c>
       <c r="AS11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT11" t="n">
         <v>11</v>
@@ -2436,7 +2503,7 @@
         <v>26</v>
       </c>
       <c r="AV11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW11" t="n">
         <v>20</v>
@@ -2448,7 +2515,7 @@
         <v>18</v>
       </c>
       <c r="AZ11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA11" t="n">
         <v>23</v>
@@ -2457,7 +2524,7 @@
         <v>25</v>
       </c>
       <c r="BC11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-23-2008-09</t>
+          <t>2008-11-23</t>
         </is>
       </c>
     </row>
@@ -2564,16 +2631,16 @@
         <v>2</v>
       </c>
       <c r="AD12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE12" t="n">
         <v>22</v>
       </c>
-      <c r="AE12" t="n">
-        <v>21</v>
-      </c>
       <c r="AF12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH12" t="n">
         <v>7</v>
@@ -2597,13 +2664,13 @@
         <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR12" t="n">
         <v>14</v>
@@ -2612,19 +2679,19 @@
         <v>2</v>
       </c>
       <c r="AT12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU12" t="n">
         <v>5</v>
       </c>
-      <c r="AU12" t="n">
-        <v>7</v>
-      </c>
       <c r="AV12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW12" t="n">
         <v>18</v>
       </c>
       <c r="AX12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY12" t="n">
         <v>25</v>
@@ -2633,13 +2700,13 @@
         <v>22</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-23-2008-09</t>
+          <t>2008-11-23</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2816,7 @@
         <v>9</v>
       </c>
       <c r="AE13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF13" t="n">
         <v>29</v>
@@ -2761,7 +2828,7 @@
         <v>9</v>
       </c>
       <c r="AI13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ13" t="n">
         <v>10</v>
@@ -2770,10 +2837,10 @@
         <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN13" t="n">
         <v>27</v>
@@ -2788,31 +2855,31 @@
         <v>25</v>
       </c>
       <c r="AR13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS13" t="n">
         <v>24</v>
       </c>
       <c r="AT13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU13" t="n">
         <v>20</v>
       </c>
       <c r="AV13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY13" t="n">
         <v>15</v>
       </c>
       <c r="AZ13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-23-2008-09</t>
+          <t>2008-11-23</t>
         </is>
       </c>
     </row>
@@ -2865,70 +2932,70 @@
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.7</v>
+        <v>39</v>
       </c>
       <c r="J14" t="n">
-        <v>87.09999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.456</v>
+        <v>0.452</v>
       </c>
       <c r="L14" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M14" t="n">
-        <v>17.7</v>
+        <v>17.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.379</v>
+        <v>0.382</v>
       </c>
       <c r="O14" t="n">
-        <v>20.6</v>
+        <v>20.2</v>
       </c>
       <c r="P14" t="n">
-        <v>27.4</v>
+        <v>26.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.754</v>
+        <v>0.763</v>
       </c>
       <c r="R14" t="n">
-        <v>13.9</v>
+        <v>13.5</v>
       </c>
       <c r="S14" t="n">
-        <v>32.6</v>
+        <v>33.4</v>
       </c>
       <c r="T14" t="n">
-        <v>46.5</v>
+        <v>46.8</v>
       </c>
       <c r="U14" t="n">
-        <v>22.5</v>
+        <v>21.7</v>
       </c>
       <c r="V14" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="W14" t="n">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="X14" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.4</v>
+        <v>21.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.8</v>
+        <v>104.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>12.6</v>
+        <v>13.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2946,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK14" t="n">
         <v>11</v>
@@ -2955,52 +3022,52 @@
         <v>11</v>
       </c>
       <c r="AM14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AN14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP14" t="n">
         <v>9</v>
       </c>
-      <c r="AO14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>6</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AR14" t="n">
         <v>4</v>
       </c>
       <c r="AS14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AT14" t="n">
         <v>3</v>
       </c>
       <c r="AU14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY14" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AZ14" t="n">
         <v>9</v>
       </c>
       <c r="BA14" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BB14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-23-2008-09</t>
+          <t>2008-11-23</t>
         </is>
       </c>
     </row>
@@ -3125,19 +3192,19 @@
         <v>9</v>
       </c>
       <c r="AI15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL15" t="n">
         <v>25</v>
       </c>
       <c r="AM15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN15" t="n">
         <v>22</v>
@@ -3152,10 +3219,10 @@
         <v>10</v>
       </c>
       <c r="AR15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT15" t="n">
         <v>13</v>
@@ -3179,13 +3246,13 @@
         <v>24</v>
       </c>
       <c r="BA15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB15" t="n">
         <v>26</v>
       </c>
       <c r="BC15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-23-2008-09</t>
+          <t>2008-11-23</t>
         </is>
       </c>
     </row>
@@ -3298,7 +3365,7 @@
         <v>12</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG16" t="n">
         <v>13</v>
@@ -3307,25 +3374,25 @@
         <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ16" t="n">
         <v>14</v>
       </c>
       <c r="AK16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL16" t="n">
         <v>6</v>
       </c>
       <c r="AM16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP16" t="n">
         <v>18</v>
@@ -3334,25 +3401,25 @@
         <v>24</v>
       </c>
       <c r="AR16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS16" t="n">
         <v>25</v>
       </c>
       <c r="AT16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AU16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AV16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW16" t="n">
         <v>6</v>
       </c>
       <c r="AX16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY16" t="n">
         <v>4</v>
@@ -3364,7 +3431,7 @@
         <v>20</v>
       </c>
       <c r="BB16" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BC16" t="n">
         <v>5</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-23-2008-09</t>
+          <t>2008-11-23</t>
         </is>
       </c>
     </row>
@@ -3396,43 +3463,43 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>0.467</v>
       </c>
       <c r="H17" t="n">
-        <v>49.1</v>
+        <v>49</v>
       </c>
       <c r="I17" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="J17" t="n">
-        <v>82.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.424</v>
+        <v>0.428</v>
       </c>
       <c r="L17" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M17" t="n">
         <v>14.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.362</v>
+        <v>0.366</v>
       </c>
       <c r="O17" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="P17" t="n">
-        <v>26.9</v>
+        <v>26.4</v>
       </c>
       <c r="Q17" t="n">
         <v>0.753</v>
@@ -3441,76 +3508,76 @@
         <v>13.9</v>
       </c>
       <c r="S17" t="n">
-        <v>32.1</v>
+        <v>31.2</v>
       </c>
       <c r="T17" t="n">
-        <v>46</v>
+        <v>45.1</v>
       </c>
       <c r="U17" t="n">
         <v>20.3</v>
       </c>
       <c r="V17" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="W17" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="X17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Y17" t="n">
         <v>5.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>24.6</v>
+        <v>24.2</v>
       </c>
       <c r="AB17" t="n">
         <v>95.09999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.2</v>
+        <v>-0.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>12</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AH17" t="n">
         <v>2</v>
       </c>
       <c r="AI17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ17" t="n">
         <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM17" t="n">
         <v>27</v>
       </c>
       <c r="AN17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO17" t="n">
         <v>12</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AP17" t="n">
         <v>10</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>9</v>
       </c>
       <c r="AQ17" t="n">
         <v>20</v>
@@ -3519,25 +3586,25 @@
         <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AT17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU17" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AV17" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AW17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX17" t="n">
         <v>27</v>
       </c>
       <c r="AY17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ17" t="n">
         <v>29</v>
@@ -3549,7 +3616,7 @@
         <v>23</v>
       </c>
       <c r="BC17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-23-2008-09</t>
+          <t>2008-11-23</t>
         </is>
       </c>
     </row>
@@ -3578,64 +3645,64 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>9</v>
       </c>
       <c r="G18" t="n">
-        <v>0.25</v>
+        <v>0.182</v>
       </c>
       <c r="H18" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="I18" t="n">
-        <v>37</v>
+        <v>36.4</v>
       </c>
       <c r="J18" t="n">
-        <v>85.2</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.434</v>
+        <v>0.426</v>
       </c>
       <c r="L18" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="M18" t="n">
-        <v>14.3</v>
+        <v>14.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.308</v>
+        <v>0.286</v>
       </c>
       <c r="O18" t="n">
-        <v>18.1</v>
+        <v>18.7</v>
       </c>
       <c r="P18" t="n">
-        <v>22.6</v>
+        <v>23.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.801</v>
+        <v>0.802</v>
       </c>
       <c r="R18" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="S18" t="n">
-        <v>29.8</v>
+        <v>29</v>
       </c>
       <c r="T18" t="n">
-        <v>40.7</v>
+        <v>40.3</v>
       </c>
       <c r="U18" t="n">
-        <v>24.2</v>
+        <v>23.5</v>
       </c>
       <c r="V18" t="n">
         <v>12.9</v>
       </c>
       <c r="W18" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="X18" t="n">
         <v>4.5</v>
@@ -3644,94 +3711,94 @@
         <v>5.8</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.9</v>
+        <v>23.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>96.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-2.5</v>
+        <v>-5.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF18" t="n">
         <v>24</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH18" t="n">
         <v>1</v>
       </c>
       <c r="AI18" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AL18" t="n">
         <v>28</v>
       </c>
       <c r="AM18" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP18" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AQ18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR18" t="n">
         <v>16</v>
       </c>
       <c r="AS18" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AT18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AU18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW18" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AX18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY18" t="n">
         <v>23</v>
       </c>
       <c r="AZ18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB18" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BC18" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-23-2008-09</t>
+          <t>2008-11-23</t>
         </is>
       </c>
     </row>
@@ -3838,22 +3905,22 @@
         <v>-3.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
         <v>7</v>
       </c>
       <c r="AI19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ19" t="n">
         <v>15</v>
@@ -3871,13 +3938,13 @@
         <v>6</v>
       </c>
       <c r="AO19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP19" t="n">
         <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR19" t="n">
         <v>13</v>
@@ -3889,10 +3956,10 @@
         <v>17</v>
       </c>
       <c r="AU19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW19" t="n">
         <v>24</v>
@@ -3910,7 +3977,7 @@
         <v>13</v>
       </c>
       <c r="BB19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC19" t="n">
         <v>23</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-23-2008-09</t>
+          <t>2008-11-23</t>
         </is>
       </c>
     </row>
@@ -4020,28 +4087,28 @@
         <v>3.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="n">
         <v>12</v>
       </c>
       <c r="AF20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
         <v>30</v>
       </c>
       <c r="AI20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="n">
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL20" t="n">
         <v>8</v>
@@ -4053,13 +4120,13 @@
         <v>7</v>
       </c>
       <c r="AO20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR20" t="n">
         <v>27</v>
@@ -4071,10 +4138,10 @@
         <v>30</v>
       </c>
       <c r="AU20" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
         <v>5</v>
@@ -4083,19 +4150,19 @@
         <v>26</v>
       </c>
       <c r="AY20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ20" t="n">
         <v>12</v>
       </c>
       <c r="BA20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB20" t="n">
         <v>20</v>
       </c>
       <c r="BC20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-23-2008-09</t>
+          <t>2008-11-23</t>
         </is>
       </c>
     </row>
@@ -4208,7 +4275,7 @@
         <v>12</v>
       </c>
       <c r="AF21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG21" t="n">
         <v>13</v>
@@ -4235,19 +4302,19 @@
         <v>10</v>
       </c>
       <c r="AO21" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AP21" t="n">
         <v>27</v>
       </c>
       <c r="AQ21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR21" t="n">
         <v>24</v>
       </c>
       <c r="AS21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT21" t="n">
         <v>12</v>
@@ -4277,7 +4344,7 @@
         <v>2</v>
       </c>
       <c r="BC21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-23-2008-09</t>
+          <t>2008-11-23</t>
         </is>
       </c>
     </row>
@@ -4399,7 +4466,7 @@
         <v>20</v>
       </c>
       <c r="AI22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
@@ -4414,25 +4481,25 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP22" t="n">
         <v>20</v>
       </c>
       <c r="AQ22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS22" t="n">
         <v>9</v>
       </c>
-      <c r="AS22" t="n">
-        <v>10</v>
-      </c>
       <c r="AT22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU22" t="n">
         <v>27</v>
@@ -4450,7 +4517,7 @@
         <v>27</v>
       </c>
       <c r="AZ22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA22" t="n">
         <v>27</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-23-2008-09</t>
+          <t>2008-11-23</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4648,7 @@
         <v>9</v>
       </c>
       <c r="AI23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="n">
         <v>13</v>
@@ -4596,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP23" t="n">
         <v>4</v>
@@ -4608,10 +4675,10 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT23" t="n">
         <v>7</v>
@@ -4629,16 +4696,16 @@
         <v>1</v>
       </c>
       <c r="AY23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB23" t="n">
         <v>8</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>10</v>
       </c>
       <c r="BC23" t="n">
         <v>4</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-23-2008-09</t>
+          <t>2008-11-23</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
         <v>6</v>
       </c>
       <c r="G24" t="n">
-        <v>0.538</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>48</v>
@@ -4688,76 +4755,76 @@
         <v>37.5</v>
       </c>
       <c r="J24" t="n">
-        <v>85.09999999999999</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.44</v>
+        <v>0.444</v>
       </c>
       <c r="L24" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="M24" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.36</v>
+        <v>0.356</v>
       </c>
       <c r="O24" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="P24" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.739</v>
+      </c>
+      <c r="R24" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="T24" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="U24" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="V24" t="n">
         <v>16.6</v>
-      </c>
-      <c r="P24" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="R24" t="n">
-        <v>15</v>
-      </c>
-      <c r="S24" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="T24" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="U24" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="V24" t="n">
-        <v>16.8</v>
       </c>
       <c r="W24" t="n">
         <v>6.8</v>
       </c>
       <c r="X24" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="AA24" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD24" t="n">
         <v>19</v>
       </c>
-      <c r="AB24" t="n">
-        <v>96</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>9</v>
-      </c>
       <c r="AE24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF24" t="n">
         <v>12</v>
       </c>
-      <c r="AF24" t="n">
-        <v>13</v>
-      </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH24" t="n">
         <v>20</v>
@@ -4769,7 +4836,7 @@
         <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL24" t="n">
         <v>27</v>
@@ -4781,10 +4848,10 @@
         <v>14</v>
       </c>
       <c r="AO24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ24" t="n">
         <v>26</v>
@@ -4793,34 +4860,34 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
       </c>
       <c r="AU24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV24" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AW24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY24" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AZ24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA24" t="n">
         <v>28</v>
       </c>
       <c r="BB24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BC24" t="n">
         <v>9</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-23-2008-09</t>
+          <t>2008-11-23</t>
         </is>
       </c>
     </row>
@@ -4936,16 +5003,16 @@
         <v>4</v>
       </c>
       <c r="AF25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH25" t="n">
         <v>15</v>
       </c>
       <c r="AI25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ25" t="n">
         <v>30</v>
@@ -4957,13 +5024,13 @@
         <v>13</v>
       </c>
       <c r="AM25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP25" t="n">
         <v>7</v>
@@ -4975,37 +5042,37 @@
         <v>29</v>
       </c>
       <c r="AS25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AT25" t="n">
         <v>22</v>
       </c>
       <c r="AU25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AV25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AW25" t="n">
         <v>28</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>29</v>
       </c>
       <c r="AX25" t="n">
         <v>17</v>
       </c>
       <c r="AY25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ25" t="n">
         <v>6</v>
       </c>
       <c r="BA25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-23-2008-09</t>
+          <t>2008-11-23</t>
         </is>
       </c>
     </row>
@@ -5034,106 +5101,106 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>0.615</v>
+        <v>0.571</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.6</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>79.5</v>
+        <v>79.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.461</v>
+        <v>0.452</v>
       </c>
       <c r="L26" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="M26" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="N26" t="n">
         <v>0.419</v>
       </c>
       <c r="O26" t="n">
-        <v>18.1</v>
+        <v>17.4</v>
       </c>
       <c r="P26" t="n">
-        <v>23.4</v>
+        <v>22.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.773</v>
+        <v>0.764</v>
       </c>
       <c r="R26" t="n">
         <v>12.6</v>
       </c>
       <c r="S26" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="T26" t="n">
-        <v>39.2</v>
+        <v>39.5</v>
       </c>
       <c r="U26" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="V26" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="W26" t="n">
         <v>7.5</v>
       </c>
       <c r="X26" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="AB26" t="n">
-        <v>100.1</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AG26" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AL26" t="n">
         <v>3</v>
@@ -5145,13 +5212,13 @@
         <v>2</v>
       </c>
       <c r="AO26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP26" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AQ26" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AR26" t="n">
         <v>6</v>
@@ -5175,19 +5242,19 @@
         <v>11</v>
       </c>
       <c r="AY26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA26" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BB26" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-23-2008-09</t>
+          <t>2008-11-23</t>
         </is>
       </c>
     </row>
@@ -5216,103 +5283,103 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G27" t="n">
-        <v>0.333</v>
+        <v>0.357</v>
       </c>
       <c r="H27" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>38.6</v>
+        <v>38</v>
       </c>
       <c r="J27" t="n">
-        <v>79.3</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.487</v>
+        <v>0.483</v>
       </c>
       <c r="L27" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="M27" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="N27" t="n">
-        <v>0.297</v>
+        <v>0.306</v>
       </c>
       <c r="O27" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="P27" t="n">
-        <v>21.5</v>
+        <v>22.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.789</v>
+        <v>0.79</v>
       </c>
       <c r="R27" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S27" t="n">
         <v>28.4</v>
       </c>
       <c r="T27" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="U27" t="n">
-        <v>21</v>
+        <v>20.4</v>
       </c>
       <c r="V27" t="n">
         <v>15.9</v>
       </c>
       <c r="W27" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="X27" t="n">
         <v>4.1</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="AC27" t="n">
-        <v>-6</v>
+        <v>-5.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF27" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ27" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AK27" t="n">
         <v>2</v>
@@ -5324,49 +5391,49 @@
         <v>21</v>
       </c>
       <c r="AN27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP27" t="n">
         <v>28</v>
       </c>
       <c r="AQ27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR27" t="n">
         <v>26</v>
       </c>
       <c r="AS27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT27" t="n">
         <v>28</v>
       </c>
       <c r="AU27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV27" t="n">
         <v>22</v>
       </c>
       <c r="AW27" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AX27" t="n">
         <v>25</v>
       </c>
       <c r="AY27" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ27" t="n">
         <v>23</v>
       </c>
       <c r="BA27" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="BB27" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>27</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-23-2008-09</t>
+          <t>2008-11-23</t>
         </is>
       </c>
     </row>
@@ -5476,28 +5543,28 @@
         <v>-0.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH28" t="n">
         <v>3</v>
       </c>
       <c r="AI28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ28" t="n">
         <v>24</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
         <v>5</v>
@@ -5521,13 +5588,13 @@
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT28" t="n">
         <v>27</v>
       </c>
       <c r="AU28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-23-2008-09</t>
+          <t>2008-11-23</t>
         </is>
       </c>
     </row>
@@ -5580,121 +5647,121 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" t="n">
         <v>6</v>
       </c>
       <c r="F29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G29" t="n">
-        <v>0.462</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>48.8</v>
       </c>
       <c r="I29" t="n">
-        <v>35.3</v>
+        <v>35.7</v>
       </c>
       <c r="J29" t="n">
-        <v>77</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L29" t="n">
         <v>6.6</v>
       </c>
       <c r="M29" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="N29" t="n">
-        <v>0.415</v>
+        <v>0.411</v>
       </c>
       <c r="O29" t="n">
-        <v>21.5</v>
+        <v>20.4</v>
       </c>
       <c r="P29" t="n">
-        <v>25.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.835</v>
+        <v>0.825</v>
       </c>
       <c r="R29" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="S29" t="n">
-        <v>30.3</v>
+        <v>30.9</v>
       </c>
       <c r="T29" t="n">
-        <v>39.1</v>
+        <v>39.8</v>
       </c>
       <c r="U29" t="n">
-        <v>22.9</v>
+        <v>23.3</v>
       </c>
       <c r="V29" t="n">
         <v>14.9</v>
       </c>
       <c r="W29" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X29" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK29" t="n">
         <v>6</v>
-      </c>
-      <c r="X29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>4</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>9</v>
       </c>
       <c r="AL29" t="n">
         <v>12</v>
       </c>
       <c r="AM29" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AN29" t="n">
         <v>3</v>
       </c>
       <c r="AO29" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AP29" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5703,10 +5770,10 @@
         <v>28</v>
       </c>
       <c r="AS29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT29" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AU29" t="n">
         <v>4</v>
@@ -5715,25 +5782,25 @@
         <v>16</v>
       </c>
       <c r="AW29" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AX29" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AY29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BA29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB29" t="n">
         <v>13</v>
       </c>
       <c r="BC29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-23-2008-09</t>
+          <t>2008-11-23</t>
         </is>
       </c>
     </row>
@@ -5846,10 +5913,10 @@
         <v>4</v>
       </c>
       <c r="AF30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH30" t="n">
         <v>20</v>
@@ -5858,10 +5925,10 @@
         <v>7</v>
       </c>
       <c r="AJ30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL30" t="n">
         <v>29</v>
@@ -5870,40 +5937,40 @@
         <v>29</v>
       </c>
       <c r="AN30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO30" t="n">
         <v>15</v>
       </c>
       <c r="AP30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT30" t="n">
         <v>18</v>
       </c>
       <c r="AU30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX30" t="n">
         <v>17</v>
       </c>
       <c r="AY30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ30" t="n">
         <v>20</v>
@@ -5915,7 +5982,7 @@
         <v>15</v>
       </c>
       <c r="BC30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-23-2008-09</t>
+          <t>2008-11-23</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
@@ -6037,7 +6104,7 @@
         <v>6</v>
       </c>
       <c r="AI31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ31" t="n">
         <v>12</v>
@@ -6058,7 +6125,7 @@
         <v>14</v>
       </c>
       <c r="AP31" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ31" t="n">
         <v>22</v>
@@ -6067,16 +6134,16 @@
         <v>21</v>
       </c>
       <c r="AS31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT31" t="n">
         <v>26</v>
       </c>
       <c r="AU31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW31" t="n">
         <v>9</v>
@@ -6091,7 +6158,7 @@
         <v>7</v>
       </c>
       <c r="BA31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB31" t="n">
         <v>24</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-23-2008-09</t>
+          <t>2008-11-23</t>
         </is>
       </c>
     </row>
